--- a/要件定義/【チーム演習】WBS.xlsx
+++ b/要件定義/【チーム演習】WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k250415349\Downloads\第一回提出大会\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k250415460\Desktop\KCCS研修関連\チーム演習15\team-project-15\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3643D282-79AC-402C-BF1D-2CC239999A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F492033-6040-41BB-9FDE-49A4592604A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -320,6 +320,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -655,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -737,6 +738,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -958,17 +960,17 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1"/>
-    <col min="3" max="7" width="9.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="3.453125" customWidth="1"/>
-    <col min="10" max="31" width="2.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="7" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="31" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" customHeight="1">
@@ -1310,9 +1312,15 @@
       <c r="D7" s="20">
         <v>45852</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="E7" s="20">
+        <v>45852</v>
+      </c>
+      <c r="F7" s="20">
+        <v>45852</v>
+      </c>
+      <c r="G7" s="41">
+        <v>1</v>
+      </c>
       <c r="H7" s="13" t="s">
         <v>20</v>
       </c>
@@ -1353,9 +1361,15 @@
       <c r="D8" s="20">
         <v>45852</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="20">
+        <v>45852</v>
+      </c>
+      <c r="F8" s="20">
+        <v>45852</v>
+      </c>
+      <c r="G8" s="41">
+        <v>1</v>
+      </c>
       <c r="H8" s="27" t="s">
         <v>62</v>
       </c>
@@ -1396,9 +1410,15 @@
       <c r="D9" s="20">
         <v>45852</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="E9" s="20">
+        <v>45852</v>
+      </c>
+      <c r="F9" s="20">
+        <v>45852</v>
+      </c>
+      <c r="G9" s="41">
+        <v>1</v>
+      </c>
       <c r="H9" s="27" t="s">
         <v>63</v>
       </c>
@@ -1439,9 +1459,15 @@
       <c r="D10" s="20">
         <v>45852</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="E10" s="20">
+        <v>45852</v>
+      </c>
+      <c r="F10" s="20">
+        <v>45852</v>
+      </c>
+      <c r="G10" s="41">
+        <v>1</v>
+      </c>
       <c r="H10" s="27" t="s">
         <v>64</v>
       </c>
@@ -1519,9 +1545,15 @@
       <c r="D12" s="20">
         <v>45853</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="E12" s="20">
+        <v>45852</v>
+      </c>
+      <c r="F12" s="20">
+        <v>45853</v>
+      </c>
+      <c r="G12" s="41">
+        <v>1</v>
+      </c>
       <c r="H12" s="13" t="s">
         <v>29</v>
       </c>
@@ -1562,9 +1594,15 @@
       <c r="D13" s="20">
         <v>45853</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="E13" s="20">
+        <v>45852</v>
+      </c>
+      <c r="F13" s="20">
+        <v>45853</v>
+      </c>
+      <c r="G13" s="41">
+        <v>1</v>
+      </c>
       <c r="H13" s="27" t="s">
         <v>32</v>
       </c>
@@ -1605,9 +1643,15 @@
       <c r="D14" s="20">
         <v>45853</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="E14" s="20">
+        <v>45853</v>
+      </c>
+      <c r="F14" s="20">
+        <v>45853</v>
+      </c>
+      <c r="G14" s="41">
+        <v>1</v>
+      </c>
       <c r="H14" s="27" t="s">
         <v>34</v>
       </c>
@@ -1648,9 +1692,15 @@
       <c r="D15" s="20">
         <v>45853</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="E15" s="20">
+        <v>45853</v>
+      </c>
+      <c r="F15" s="20">
+        <v>45853</v>
+      </c>
+      <c r="G15" s="41">
+        <v>1</v>
+      </c>
       <c r="H15" s="27" t="s">
         <v>20</v>
       </c>
@@ -1691,9 +1741,15 @@
       <c r="D16" s="20">
         <v>45853</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="E16" s="20">
+        <v>45853</v>
+      </c>
+      <c r="F16" s="20">
+        <v>45853</v>
+      </c>
+      <c r="G16" s="41">
+        <v>1</v>
+      </c>
       <c r="H16" s="27" t="s">
         <v>22</v>
       </c>
@@ -1771,7 +1827,9 @@
       <c r="D18" s="21">
         <v>45854</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="20">
+        <v>45853</v>
+      </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="27" t="s">
@@ -1814,7 +1872,9 @@
       <c r="D19" s="21">
         <v>45854</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="20">
+        <v>45853</v>
+      </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="27" t="s">
@@ -1857,7 +1917,9 @@
       <c r="D20" s="21">
         <v>45854</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="20">
+        <v>45853</v>
+      </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="27" t="s">
@@ -1900,7 +1962,9 @@
       <c r="D21" s="21">
         <v>45854</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="20">
+        <v>45853</v>
+      </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13" t="s">
@@ -1943,7 +2007,9 @@
       <c r="D22" s="21">
         <v>45855</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="21">
+        <v>45854</v>
+      </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13" t="s">
